--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H2">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.03755233333333</v>
+        <v>7.773176666666667</v>
       </c>
       <c r="N2">
-        <v>30.112657</v>
+        <v>23.31953</v>
       </c>
       <c r="O2">
-        <v>0.5678353343629902</v>
+        <v>0.5089955536421515</v>
       </c>
       <c r="P2">
-        <v>0.5678353343629902</v>
+        <v>0.5089955536421515</v>
       </c>
       <c r="Q2">
-        <v>20.90474517137522</v>
+        <v>5.682256919805556</v>
       </c>
       <c r="R2">
-        <v>188.142706542377</v>
+        <v>51.14031227825</v>
       </c>
       <c r="S2">
-        <v>0.02681261851036327</v>
+        <v>0.008519218816878267</v>
       </c>
       <c r="T2">
-        <v>0.02681261851036327</v>
+        <v>0.008519218816878267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H3">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>17.425689</v>
       </c>
       <c r="O3">
-        <v>0.3285967737692652</v>
+        <v>0.3803506425794581</v>
       </c>
       <c r="P3">
-        <v>0.3285967737692652</v>
+        <v>0.3803506425794581</v>
       </c>
       <c r="Q3">
-        <v>12.09722503001433</v>
+        <v>4.246107957691667</v>
       </c>
       <c r="R3">
-        <v>108.875025270129</v>
+        <v>38.214971619225</v>
       </c>
       <c r="S3">
-        <v>0.01551601213527035</v>
+        <v>0.006366048442051304</v>
       </c>
       <c r="T3">
-        <v>0.01551601213527035</v>
+        <v>0.006366048442051304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H4">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.830756333333333</v>
+        <v>1.689860666666667</v>
       </c>
       <c r="N4">
-        <v>5.492269</v>
+        <v>5.069582</v>
       </c>
       <c r="O4">
-        <v>0.1035678918677447</v>
+        <v>0.1106538037783903</v>
       </c>
       <c r="P4">
-        <v>0.1035678918677447</v>
+        <v>0.1106538037783903</v>
       </c>
       <c r="Q4">
-        <v>3.812831390389889</v>
+        <v>1.235302229505556</v>
       </c>
       <c r="R4">
-        <v>34.315482513509</v>
+        <v>11.11772006555</v>
       </c>
       <c r="S4">
-        <v>0.004890372624816681</v>
+        <v>0.001852047548475778</v>
       </c>
       <c r="T4">
-        <v>0.00489037262481668</v>
+        <v>0.001852047548475778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J5">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.03755233333333</v>
+        <v>7.773176666666667</v>
       </c>
       <c r="N5">
-        <v>30.112657</v>
+        <v>23.31953</v>
       </c>
       <c r="O5">
-        <v>0.5678353343629902</v>
+        <v>0.5089955536421515</v>
       </c>
       <c r="P5">
-        <v>0.5678353343629902</v>
+        <v>0.5089955536421515</v>
       </c>
       <c r="Q5">
-        <v>374.2222343528467</v>
+        <v>289.8012825855333</v>
       </c>
       <c r="R5">
-        <v>3368.00010917562</v>
+        <v>2608.2115432698</v>
       </c>
       <c r="S5">
-        <v>0.479980881160799</v>
+        <v>0.4344894246426674</v>
       </c>
       <c r="T5">
-        <v>0.4799808811607991</v>
+        <v>0.4344894246426674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J6">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>17.425689</v>
       </c>
       <c r="O6">
-        <v>0.3285967737692652</v>
+        <v>0.3803506425794581</v>
       </c>
       <c r="P6">
-        <v>0.3285967737692652</v>
+        <v>0.3803506425794581</v>
       </c>
       <c r="Q6">
         <v>216.55612364986</v>
@@ -818,10 +818,10 @@
         <v>1949.00511284874</v>
       </c>
       <c r="S6">
-        <v>0.2777568768194066</v>
+        <v>0.3246753938699475</v>
       </c>
       <c r="T6">
-        <v>0.2777568768194066</v>
+        <v>0.3246753938699475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J7">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.830756333333333</v>
+        <v>1.689860666666667</v>
       </c>
       <c r="N7">
-        <v>5.492269</v>
+        <v>5.069582</v>
       </c>
       <c r="O7">
-        <v>0.1035678918677447</v>
+        <v>0.1106538037783903</v>
       </c>
       <c r="P7">
-        <v>0.1035678918677447</v>
+        <v>0.1106538037783903</v>
       </c>
       <c r="Q7">
-        <v>68.25466038572668</v>
+        <v>63.00175714401333</v>
       </c>
       <c r="R7">
-        <v>614.29194347154</v>
+        <v>567.01581429612</v>
       </c>
       <c r="S7">
-        <v>0.08754405545123901</v>
+        <v>0.09445643914602153</v>
       </c>
       <c r="T7">
-        <v>0.08754405545123901</v>
+        <v>0.09445643914602152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H8">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.03755233333333</v>
+        <v>7.773176666666667</v>
       </c>
       <c r="N8">
-        <v>30.112657</v>
+        <v>23.31953</v>
       </c>
       <c r="O8">
-        <v>0.5678353343629902</v>
+        <v>0.5089955536421515</v>
       </c>
       <c r="P8">
-        <v>0.5678353343629902</v>
+        <v>0.5089955536421515</v>
       </c>
       <c r="Q8">
-        <v>47.59192014508633</v>
+        <v>44.01278862081111</v>
       </c>
       <c r="R8">
-        <v>428.327281305777</v>
+        <v>396.1150975873</v>
       </c>
       <c r="S8">
-        <v>0.06104183469182783</v>
+        <v>0.06598691018260583</v>
       </c>
       <c r="T8">
-        <v>0.06104183469182783</v>
+        <v>0.06598691018260583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H9">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>17.425689</v>
       </c>
       <c r="O9">
-        <v>0.3285967737692652</v>
+        <v>0.3803506425794581</v>
       </c>
       <c r="P9">
-        <v>0.3285967737692652</v>
+        <v>0.3803506425794581</v>
       </c>
       <c r="Q9">
-        <v>27.540645096881</v>
+        <v>32.88887754294333</v>
       </c>
       <c r="R9">
-        <v>247.865805871929</v>
+        <v>295.99989788649</v>
       </c>
       <c r="S9">
-        <v>0.03532388481458819</v>
+        <v>0.04930920026745918</v>
       </c>
       <c r="T9">
-        <v>0.03532388481458818</v>
+        <v>0.04930920026745918</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H10">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.830756333333333</v>
+        <v>1.689860666666667</v>
       </c>
       <c r="N10">
-        <v>5.492269</v>
+        <v>5.069582</v>
       </c>
       <c r="O10">
-        <v>0.1035678918677447</v>
+        <v>0.1106538037783903</v>
       </c>
       <c r="P10">
-        <v>0.1035678918677447</v>
+        <v>0.1106538037783903</v>
       </c>
       <c r="Q10">
-        <v>8.680324279034334</v>
+        <v>9.568222042291112</v>
       </c>
       <c r="R10">
-        <v>78.12291851130901</v>
+        <v>86.11399838062</v>
       </c>
       <c r="S10">
-        <v>0.01113346379168901</v>
+        <v>0.014345317083893</v>
       </c>
       <c r="T10">
-        <v>0.01113346379168901</v>
+        <v>0.014345317083893</v>
       </c>
     </row>
   </sheetData>
